--- a/data_samples/archived/week-7/afl-reduced_results.xlsx
+++ b/data_samples/archived/week-7/afl-reduced_results.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ML101\data_samples\archived\week-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C0588-9744-4846-8363-BD5D12E14118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABD329D-0A4F-4041-91B9-6AB6129D6039}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13220" yWindow="1590" windowWidth="7100" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$A$2346</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -602,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,7 @@
         <v>1.24</v>
       </c>
       <c r="H2" s="5">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -690,10 +693,10 @@
         <v>109</v>
       </c>
       <c r="G3" s="5">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="H3" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -716,10 +719,10 @@
         <v>99</v>
       </c>
       <c r="G4" s="5">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="H4" s="5">
-        <v>2.46</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -742,10 +745,10 @@
         <v>48</v>
       </c>
       <c r="G5" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="H5" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,10 +771,10 @@
         <v>48</v>
       </c>
       <c r="G6" s="5">
-        <v>2.2799999999999998</v>
+        <v>2.42</v>
       </c>
       <c r="H6" s="5">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -794,10 +797,10 @@
         <v>103</v>
       </c>
       <c r="G7" s="5">
-        <v>2.2799999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="H7" s="5">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -820,10 +823,10 @@
         <v>60</v>
       </c>
       <c r="G8" s="5">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="H8" s="5">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -846,10 +849,10 @@
         <v>39</v>
       </c>
       <c r="G9" s="5">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="H9" s="5">
-        <v>2.62</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -872,10 +875,10 @@
         <v>104</v>
       </c>
       <c r="G10" s="5">
-        <v>3.7</v>
+        <v>2.65</v>
       </c>
       <c r="H10" s="5">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -898,10 +901,10 @@
         <v>47</v>
       </c>
       <c r="G11" s="5">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="H11" s="5">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -924,10 +927,10 @@
         <v>104</v>
       </c>
       <c r="G12" s="5">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="H12" s="5">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -953,7 +956,7 @@
         <v>1.65</v>
       </c>
       <c r="H13" s="5">
-        <v>2.2400000000000002</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -976,10 +979,10 @@
         <v>45</v>
       </c>
       <c r="G14" s="5">
-        <v>1.29</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H14" s="5">
-        <v>3.64</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1002,10 +1005,10 @@
         <v>96</v>
       </c>
       <c r="G15" s="5">
-        <v>2.1800000000000002</v>
+        <v>2.36</v>
       </c>
       <c r="H15" s="5">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1028,10 +1031,10 @@
         <v>71</v>
       </c>
       <c r="G16" s="5">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="H16" s="5">
-        <v>2.75</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1054,10 +1057,10 @@
         <v>56</v>
       </c>
       <c r="G17" s="5">
-        <v>1.1299999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H17" s="5">
-        <v>6.05</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1080,10 +1083,10 @@
         <v>76</v>
       </c>
       <c r="G18" s="5">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H18" s="5">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1106,10 +1109,10 @@
         <v>134</v>
       </c>
       <c r="G19" s="5">
-        <v>2.76</v>
+        <v>3.17</v>
       </c>
       <c r="H19" s="5">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1132,10 +1135,10 @@
         <v>81</v>
       </c>
       <c r="G20" s="5">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H20" s="5">
-        <v>3.25</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1143,10 +1146,10 @@
         <v>44297</v>
       </c>
       <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
         <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>3</v>
@@ -1158,10 +1161,10 @@
         <v>60</v>
       </c>
       <c r="G21" s="5">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="H21" s="5">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1184,10 +1187,10 @@
         <v>109</v>
       </c>
       <c r="G22" s="5">
-        <v>2.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H22" s="5">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1213,7 +1216,7 @@
         <v>1.31</v>
       </c>
       <c r="H23" s="5">
-        <v>2.5</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1236,10 +1239,10 @@
         <v>70</v>
       </c>
       <c r="G24" s="5">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H24" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1262,10 +1265,10 @@
         <v>82</v>
       </c>
       <c r="G25" s="5">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="H25" s="5">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1288,10 +1291,10 @@
         <v>54</v>
       </c>
       <c r="G26" s="5">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H26" s="5">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1314,10 +1317,10 @@
         <v>77</v>
       </c>
       <c r="G27" s="5">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H27" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1340,10 +1343,10 @@
         <v>80</v>
       </c>
       <c r="G28" s="5">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="H28" s="5">
-        <v>3.75</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1366,10 +1369,10 @@
         <v>64</v>
       </c>
       <c r="G29" s="5">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="H29" s="5">
-        <v>3.35</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1395,7 +1398,7 @@
         <v>1.62</v>
       </c>
       <c r="H30" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1418,10 +1421,10 @@
         <v>64</v>
       </c>
       <c r="G31" s="5">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H31" s="5">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1444,10 +1447,10 @@
         <v>71</v>
       </c>
       <c r="G32" s="5">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="H32" s="5">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1470,10 +1473,10 @@
         <v>68</v>
       </c>
       <c r="G33" s="5">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="H33" s="5">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1496,10 +1499,10 @@
         <v>117</v>
       </c>
       <c r="G34" s="5">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="H34" s="5">
-        <v>3.6</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1522,10 +1525,10 @@
         <v>85</v>
       </c>
       <c r="G35" s="5">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H35" s="5">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1548,10 +1551,10 @@
         <v>167</v>
       </c>
       <c r="G36" s="5">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H36" s="5">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1574,10 +1577,10 @@
         <v>73</v>
       </c>
       <c r="G37" s="5">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H37" s="5">
-        <v>2</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1600,10 +1603,10 @@
         <v>56</v>
       </c>
       <c r="G38" s="5">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H38" s="5">
-        <v>2.1800000000000002</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1626,10 +1629,10 @@
         <v>93</v>
       </c>
       <c r="G39" s="5">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H39" s="5">
-        <v>2.0499999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1652,10 +1655,10 @@
         <v>78</v>
       </c>
       <c r="G40" s="5">
-        <v>4.8</v>
+        <v>4.25</v>
       </c>
       <c r="H40" s="5">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1684,7 @@
         <v>1.35</v>
       </c>
       <c r="H41" s="5">
-        <v>3.25</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1704,10 +1707,10 @@
         <v>91</v>
       </c>
       <c r="G42" s="5">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H42" s="5">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1733,7 +1736,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="H43" s="5">
-        <v>6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1756,10 +1759,10 @@
         <v>88</v>
       </c>
       <c r="G44" s="5">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H44" s="5">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1785,7 +1788,7 @@
         <v>1.5</v>
       </c>
       <c r="H45" s="5">
-        <v>2.6</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1793,19 +1796,19 @@
         <v>44280</v>
       </c>
       <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
         <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E46">
+        <v>85</v>
+      </c>
+      <c r="F46">
         <v>106</v>
-      </c>
-      <c r="F46">
-        <v>85</v>
       </c>
       <c r="G46" s="5">
         <v>2.5</v>
@@ -1834,10 +1837,10 @@
         <v>58</v>
       </c>
       <c r="G47" s="5">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="H47" s="5">
-        <v>3.75</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1860,10 +1863,10 @@
         <v>86</v>
       </c>
       <c r="G48" s="5">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H48" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1886,10 +1889,10 @@
         <v>117</v>
       </c>
       <c r="G49" s="5">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H49" s="5">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1912,7 +1915,7 @@
         <v>125</v>
       </c>
       <c r="G50" s="5">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H50" s="5">
         <v>4.3499999999999996</v>
@@ -1938,10 +1941,10 @@
         <v>92</v>
       </c>
       <c r="G51" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="H51" s="5">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1964,10 +1967,10 @@
         <v>91</v>
       </c>
       <c r="G52" s="5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H52" s="5">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1990,10 +1993,10 @@
         <v>58</v>
       </c>
       <c r="G53" s="5">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H53" s="5">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2019,7 +2022,7 @@
         <v>1.75</v>
       </c>
       <c r="H54" s="5">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2042,7 +2045,7 @@
         <v>80</v>
       </c>
       <c r="G55" s="5">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H55" s="5">
         <v>3.14</v>
@@ -61615,6 +61618,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A2346" xr:uid="{0B146581-BE1F-4902-924A-EF90745C4B34}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H528">
     <sortCondition descending="1" ref="A1:A528"/>
   </sortState>
